--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
@@ -252,6 +252,20 @@
     <t>Windows OS
 ARE start file: Are.exe (start.sh - Linux)
 demomenu.acs (Should be default autostart model)</t>
+  </si>
+  <si>
+    <t>ARE_GUI_7</t>
+  </si>
+  <si>
+    <t>Stresstest Start model</t>
+  </si>
+  <si>
+    <t>1. Execute Test ARE_GUI_2 by clicking 10 times onto 'Start' button as fast as possible</t>
+  </si>
+  <si>
+    <t>The model must be started 10 times sequentially and successfully
+The last model start must have a clean state and must not have orphaned GUI elements in the ARE GUI  panel
+The ARE must not crash</t>
   </si>
 </sst>
 </file>
@@ -619,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,7 +644,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,11 +809,21 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">

--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Number</t>
   </si>
@@ -267,12 +267,24 @@
 The last model start must have a clean state and must not have orphaned GUI elements in the ARE GUI  panel
 The ARE must not crash</t>
   </si>
+  <si>
+    <t>Test Execution Infos</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Environment (OS + Version, Architecture, Java Version):</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +311,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -348,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +383,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,6 +683,12 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -668,6 +697,9 @@
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -675,6 +707,9 @@
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">

--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Number</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>ARE_GUI_4</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)</t>
   </si>
   <si>
     <t>1. Execute ARE start file
@@ -249,11 +246,6 @@
     <t>Test start of all demo models on windows</t>
   </si>
   <si>
-    <t>Windows OS
-ARE start file: Are.exe (start.sh - Linux)
-demomenu.acs (Should be default autostart model)</t>
-  </si>
-  <si>
     <t>ARE_GUI_7</t>
   </si>
   <si>
@@ -278,6 +270,20 @@
   </si>
   <si>
     <t>Environment (OS + Version, Architecture, Java Version):</t>
+  </si>
+  <si>
+    <t>1. Execute test ARE_GUI_1
+2. Right click on ARE GUI background panel
+3. Click on 'resume button'
+4. Click on 'stop button'</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)</t>
+  </si>
+  <si>
+    <t>Windows OS
+ARE start file: start.bat (start.sh - Linux)
+demomenu.acs (Should be default autostart model)</t>
   </si>
 </sst>
 </file>
@@ -667,7 +673,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" x14ac:dyDescent="0.4">
@@ -698,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
@@ -709,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -743,13 +749,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="F7" s="5"/>
     </row>
@@ -761,13 +767,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -779,13 +785,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -797,67 +803,67 @@
         <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="F13" s="5"/>
     </row>

--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -157,9 +157,6 @@
     <t>Start model</t>
   </si>
   <si>
-    <t>Pause model/Resume model</t>
-  </si>
-  <si>
     <t>ARE_GUI_2</t>
   </si>
   <si>
@@ -189,11 +186,6 @@
   <si>
     <t>1. The model must stop running
 2. CameraMouse: The LED must be off and the ARE GUI panel empty, the video frame window must be closed</t>
-  </si>
-  <si>
-    <t>1. Execute test ARE_GUI_2
-2. Right click on ARE GUI background panel
-3. Click on 'start button'</t>
   </si>
   <si>
     <t>1. The model must be started successfully.
@@ -222,17 +214,6 @@
 CameraMouse: The LED must be off and the ARE GUI panel empty, the video frame window must be closed</t>
   </si>
   <si>
-    <t>1. Execute test ARE_GUI_1
-2. Right click on ARE GUI background panel
-3. Click on 'stop button'</t>
-  </si>
-  <si>
-    <t>1. Execute test ARE_GUI_1
-2. Right click on ARE GUI background panel
-3. Click on 'resume button'
-4. Click on 'start button'</t>
-  </si>
-  <si>
     <t>ARE_GUI_6</t>
   </si>
   <si>
@@ -272,18 +253,37 @@
     <t>Environment (OS + Version, Architecture, Java Version):</t>
   </si>
   <si>
-    <t>1. Execute test ARE_GUI_1
-2. Right click on ARE GUI background panel
-3. Click on 'resume button'
-4. Click on 'stop button'</t>
-  </si>
-  <si>
     <t>ARE start file: start.bat (start.sh - Linux)</t>
   </si>
   <si>
     <t>Windows OS
 ARE start file: start.bat (start.sh - Linux)
 demomenu.acs (Should be default autostart model)</t>
+  </si>
+  <si>
+    <t>Pause model/Start model</t>
+  </si>
+  <si>
+    <t>1. Execute test ARE_GUI_1
+2. Right click on ARE GUI background panel
+3. Click on 'Pause Model' button
+4. Click on 'Start Model' button</t>
+  </si>
+  <si>
+    <t>1. Execute test ARE_GUI_2
+2. Right click on ARE GUI background panel
+3. Click on 'Start Model' button</t>
+  </si>
+  <si>
+    <t>1. Execute test ARE_GUI_1
+2. Right click on ARE GUI background panel
+3. Click on 'Pause Model' button
+4. Click on 'Stop Model' button</t>
+  </si>
+  <si>
+    <t>1. Execute test ARE_GUI_1
+2. Right click on ARE GUI background panel
+3. Click on 'Stop Model' button</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -673,7 +673,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="32.25" x14ac:dyDescent="0.4">
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -749,121 +749,121 @@
         <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5"/>
     </row>

--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Number</t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>Common Requirements</t>
-  </si>
-  <si>
-    <t>Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the fie 'areProperties':
-showErrorDialogs=1</t>
   </si>
   <si>
     <t>Test ARE GUI
@@ -221,16 +217,10 @@
 2. Select each menu entry of the demo menu sequentially (including submenus)</t>
   </si>
   <si>
-    <t xml:space="preserve">Each demo model should start successfully </t>
-  </si>
-  <si>
     <t>Test start of all demo models on windows</t>
   </si>
   <si>
     <t>ARE_GUI_7</t>
-  </si>
-  <si>
-    <t>Stresstest Start model</t>
   </si>
   <si>
     <t>1. Execute Test ARE_GUI_2 by clicking 10 times onto 'Start' button as fast as possible</t>
@@ -251,14 +241,6 @@
   </si>
   <si>
     <t>Environment (OS + Version, Architecture, Java Version):</t>
-  </si>
-  <si>
-    <t>ARE start file: start.bat (start.sh - Linux)</t>
-  </si>
-  <si>
-    <t>Windows OS
-ARE start file: start.bat (start.sh - Linux)
-demomenu.acs (Should be default autostart model)</t>
   </si>
   <si>
     <t>Pause model/Start model</t>
@@ -284,13 +266,85 @@
     <t>1. Execute test ARE_GUI_1
 2. Right click on ARE GUI background panel
 3. Click on 'Stop Model' button</t>
+  </si>
+  <si>
+    <t>Applicable OS (Skip otherwise)</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh)</t>
+  </si>
+  <si>
+    <t>Win, Linux, Mac OSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each demo model indicating support for the tested platform must start and run successfully </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ARE start file: start.bat (start.sh)
+demomenu.acs (Should be default autostart model)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Each menu entry has letters (W, L, M):
+W: models which must run on Windows
+L: models which must run on Linux
+M: models which must run on Mac OSX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
+showErrorDialogs=1
+AsTeRICS must be installed according to test cases 01a_AsTeRICS_Setup
+Some tests require a webcam (integrated or USB)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ARE start files:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Win: ARE.exe, start.bat and start_debug.bat
+Linux: start.sh, start_debug.sh or asterics-are-javaembedded
+Mac OSX: start.sh, start_debug.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>Stresstest Start model of CameraMouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +375,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -670,58 +732,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="2" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32.25" x14ac:dyDescent="0.4">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="197.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,671 +793,761 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
+++ b/Tests/integrationTests/02_ARE GUI/Test_cases_ARE_GUI.xlsx
@@ -304,6 +304,9 @@
     </r>
   </si>
   <si>
+    <t>Stresstest Start model of CameraMouse</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
 showErrorDialogs=1
@@ -332,12 +335,9 @@
         <scheme val="minor"/>
       </rPr>
       <t>Win: ARE.exe, start.bat and start_debug.bat
-Linux: start.sh, start_debug.sh or asterics-are-javaembedded
-Mac OSX: start.sh, start_debug.sh</t>
+Linux: start.sh, start_debug.sh or asterics-are
+Mac OSX: start.sh, start_debug.sh or asterics-are</t>
     </r>
-  </si>
-  <si>
-    <t>Stresstest Start model of CameraMouse</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="7" t="s">
@@ -939,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>43</v>
